--- a/biology/Zoologie/Hemidactylus_mandebensis/Hemidactylus_mandebensis.xlsx
+++ b/biology/Zoologie/Hemidactylus_mandebensis/Hemidactylus_mandebensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemidactylus mandebensis est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemidactylus mandebensis est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Yémen[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Yémen.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 41,5 mm de longueur standard et la femelle paratype 29,9 à 39,1 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 41,5 mm de longueur standard et la femelle paratype 29,9 à 39,1 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de mandeb et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Bab-el-Mandeb.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Šmíd, Moravec, Kratochvíl, Nasher, Mazuch, Gvoždík &amp; Carranza, 2015 : Multilocus phylogeny and taxonomic revision of the Hemidactylus robustus species group (Reptilia, Gekkonidae) with descriptions of three new species from Yemen and Ethiopia. Systematics and Biodiversity, vol. 13, no 4, p. 346-368.</t>
         </is>
